--- a/assets/files/excel/24124.xlsx
+++ b/assets/files/excel/24124.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\Эксель-интерактив\Задачи в Приложение для ПК\Excel-решения_Бачило\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\3-й этап\Эксель-интерактив\Excel-решения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="CPGOMF8x/jFaAtsPi188dPi1Z6mU26au8t5gjvItlmzf0+CvEzs9IcgZVWIqZyo37S/fLvLZuAO8F13nx3YNvw==" workbookSaltValue="HC5Dhl+S38S8O0cCj5QhRA==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="2q6Cde5dp8hu6lFa9EZCVD6/Ru/e8vqHh8uqqrPaRzombtUROKMkkPI9QELd6fW43zGOvISfhTn3xJ0DbZnctw==" workbookSaltValue="6KTRQl0zJrKirIkcfIhVOQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
   </bookViews>
@@ -2264,7 +2264,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:H8"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2618,15 +2618,15 @@
         <v>21</v>
       </c>
       <c r="F18" s="4" t="str">
-        <f>IFERROR(IF('Тесто для пиццы'!F16='Тесто для пиццы(решение)'!F17,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS('Тесто для пиццы'!F16-'Тесто для пиццы(решение)'!F17)&lt;10,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
       <c r="G18" s="4" t="str">
-        <f>IFERROR(IF('Тесто для пиццы'!G16='Тесто для пиццы(решение)'!G17,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS('Тесто для пиццы'!G16-'Тесто для пиццы(решение)'!G17)&lt;0.1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
       <c r="H18" s="4" t="str">
-        <f>IFERROR(IF('Тесто для пиццы'!H16='Тесто для пиццы(решение)'!H17,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS('Тесто для пиццы'!H16-'Тесто для пиццы(решение)'!H17)&lt;10,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
